--- a/server/DataBase.xlsx
+++ b/server/DataBase.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Pós PUC\Desenvolvimento Web\petshop\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{0A9B57E3-D974-48ED-837D-22CB56B4A5AC}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{CBA54314-4DBF-4D4B-B269-FD7A4EA179E9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{E972D0C0-4EC2-442B-83FF-87D5539D8F35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidatos" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/DataBase.xlsx
+++ b/server/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Pós PUC\Desenvolvimento Web\petshop\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{CBA54314-4DBF-4D4B-B269-FD7A4EA179E9}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E1BAA1DE-92BB-4D9C-A5C4-71974119C9C9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{E972D0C0-4EC2-442B-83FF-87D5539D8F35}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Geraldo Alckmin</t>
   </si>
@@ -38,45 +38,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>foto</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/alvaro_dias.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/henrique_meirelles.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/geraldo_alckmin.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/jair_bolsonaro.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/guilherme_boulos.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/vera_lucia.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/fernando_haddad.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/ciro_gomes.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/marina_silva.jpg</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/storagevotocerto/candidatos/joao_amoedo.jpg</t>
-  </si>
-  <si>
-    <t>descricao</t>
-  </si>
-  <si>
     <t>Etiam sit amet posuere mi. Aenean at tincidunt arcu. Maecenas eleifend urna fringilla mi interdum pulvinar. In hac habitasse platea dictumst. Nam eget libero nec metus finibus luctus feugiat et risus. Donec vel mauris felis. Nullam eget convallis est. Cras vestibulum justo sit amet enim imperdiet, eu sagittis elit pellentesque. In sed dignissim purus. Nam molestie vitae neque elementum placerat. Sed consectetur sagittis eros, in euismod orci commodo at. Donec lacinia, enim nec posuere porta, purus lorem vehicula diam, id sollicitudin neque turpis a neque. Phasellus ornare, ligula eu viverra suscipit, sem lacus sollicitudin tellus, in congue tortor orci tempus sem. Proin tincidunt odio sed leo facilisis congue. Nam et porta nisl.</t>
   </si>
   <si>
@@ -132,13 +93,85 @@
   </si>
   <si>
     <t>Ração Premier Pet Golden</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>21.99</t>
+  </si>
+  <si>
+    <t>102.99</t>
+  </si>
+  <si>
+    <t>99.99</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>29.99</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_10.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +183,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,10 +217,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -495,132 +537,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB29D-101C-4B11-954C-C18FFFB9ECAD}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -628,57 +695,68 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{ACE837D2-0E0E-4D00-B7E7-B77AB835D847}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{82CE6571-7C42-458E-AEBA-F0504FB0F72D}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{43B4EBB1-7A7E-461A-9FFE-2FF5995E2E2E}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{C878C8A6-F4EC-4293-A1E2-81FCE66E2241}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{13704662-8C08-4B5E-A200-9E1877C58343}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{53D1CD77-51B8-4D8A-B268-E073324E8382}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{71B857CB-D583-4C09-96C0-572ED5C4ADA3}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{D6483B09-E2FC-4D6D-8D88-CD59237678D8}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{36997731-2AFE-4478-9E48-0D6E26E51F08}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{A10F2A07-3D20-45E9-B203-FE4CF2AAD4A5}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{82CE6571-7C42-458E-AEBA-F0504FB0F72D}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{43B4EBB1-7A7E-461A-9FFE-2FF5995E2E2E}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C878C8A6-F4EC-4293-A1E2-81FCE66E2241}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{13704662-8C08-4B5E-A200-9E1877C58343}"/>
+    <hyperlink ref="E6:E11" r:id="rId5" display="https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_4.png" xr:uid="{8F30351A-4ED8-43D5-909D-9C8265771A7A}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{C8AFC1D7-76C1-48CA-A824-9797A17BB57E}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{96EC2899-4D1D-4258-8BF6-AFBAE341BA29}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{ABCE3506-9AEF-4C72-9944-C455127B147F}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{862CA72E-6CDC-4272-B933-9280F257E449}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{2AFA40F1-EC77-4D5F-B945-8D2ADEF6300D}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{A8AC8F56-76FB-4E5F-BE3C-2C23AD4AD526}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/server/DataBase.xlsx
+++ b/server/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Pós PUC\Desenvolvimento Web\petshop\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E1BAA1DE-92BB-4D9C-A5C4-71974119C9C9}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{D1512C9A-4042-4FCD-B5EB-281CE015B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5C403E0C-5417-4CBB-BCEA-A6386E8AAE02}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{E972D0C0-4EC2-442B-83FF-87D5539D8F35}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
-    <t>Geraldo Alckmin</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/marciovcampos/petshop/master/imgs/product_10.png</t>
+  </si>
+  <si>
+    <t>Ração Golden Cães Adultos</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,19 +553,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,16 +607,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,16 +641,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,16 +658,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,16 +675,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,16 +692,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,16 +709,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,16 +726,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
